--- a/docs/8-Ball Leaderboard - Change Log.xlsx
+++ b/docs/8-Ball Leaderboard - Change Log.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a9f94956210c070/Dev/Python/Projects/Web/Prod/8ball-leaderboard/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7a9f94956210c070/Dev/Projects/Build - Websites/Prod/8ball-leaderboard/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{A1EC8F27-E9BF-4E37-88BE-2FF19B48828C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AA296B73-B364-4C48-B99A-98868F5767CD}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{A1EC8F27-E9BF-4E37-88BE-2FF19B48828C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FD33516-2B86-4F8D-A627-BDC2770E02E1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1B96163A-B401-4563-A93F-582AF6531416}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -60,13 +60,20 @@
     <t>Code Refactor - Update</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Updated the footer to include website icon and url link. This now includes a footer background colour.</t>
   </si>
   <si>
     <t>Included new class to update the footer icons</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>8B_DB_PROD.db</t>
+  </si>
+  <si>
+    <t>Remove all matches played in 2022. This is now a clean record from 2023 onwards.
+DELETE FROM recently where date_played like '%2022%';</t>
   </si>
 </sst>
 </file>
@@ -328,8 +335,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4393F0BF-4E50-483F-B9FB-03F3E18534A6}" name="Table2" displayName="Table2" ref="B6:F8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="B6:F8" xr:uid="{4393F0BF-4E50-483F-B9FB-03F3E18534A6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4393F0BF-4E50-483F-B9FB-03F3E18534A6}" name="Table2" displayName="Table2" ref="B6:F9" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="B6:F9" xr:uid="{4393F0BF-4E50-483F-B9FB-03F3E18534A6}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{05B0E92E-570F-4F2A-954C-3B0B26B505BE}" name="Date" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{D7965B70-F781-4B33-A376-9512961E413A}" name="Component" dataDxfId="3"/>
@@ -638,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA1826C-F3EA-4BDE-B7B9-D53C2987FBF2}">
-  <dimension ref="B1:F8"/>
+  <dimension ref="B1:F9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -709,10 +716,10 @@
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:6" ht="40" customHeight="1" x14ac:dyDescent="0.35">
@@ -726,18 +733,35 @@
         <v>10</v>
       </c>
       <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
+    </row>
+    <row r="9" spans="2:6" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="3">
+        <v>44969</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D8" xr:uid="{89D2D9AB-D0A8-43A5-8B2D-450191A06D36}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D9" xr:uid="{89D2D9AB-D0A8-43A5-8B2D-450191A06D36}">
       <formula1>"Code Refactor - Add, Code Refactor - Remove, Code Refactor - Update, Bug Fix, New Feature"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F8" xr:uid="{4559AB6B-2D6D-487F-B9D0-C7E26110FFB9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F9" xr:uid="{4559AB6B-2D6D-487F-B9D0-C7E26110FFB9}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
